--- a/biology/Botanique/Peridiniopsidaceae/Peridiniopsidaceae.xlsx
+++ b/biology/Botanique/Peridiniopsidaceae/Peridiniopsidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Peridiniopsidaceae sont une famille d'algues dinoflagellés de l’ordre des Peridiniales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Peridiniopsidaceae sont une famille d'algues dinoflagellés de l’ordre des Peridiniales.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Peridiniopsis, dérivé du grec περιδινέω / peridinó (δινέω / dineo) tournoyer, et du suffixe -opsis, « ressemble à », par allusion au genre Peridinium (algue voisine, de la famille des Peridiniaceae.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (15 janvier 2022)[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (15 janvier 2022)
 Johsia Z.Luo, Na Wang, K,N,Mertens &amp; H.Gu
 Palatinus Craveiro, Calado, Daugbjerg &amp; Moestrup
 Parvodinium Carty
@@ -576,9 +592,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Peridiniopsidaceae a été créée en 2017 par les botanistes et phycologues Marc Gottschling (d), Juliane Kretschmann (d) et Anže Žerdoner Čalasan (d)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Peridiniopsidaceae a été créée en 2017 par les botanistes et phycologues Marc Gottschling (d), Juliane Kretschmann (d) et Anže Žerdoner Čalasan (d).
 </t>
         </is>
       </c>
